--- a/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D627323B-7803-4652-8624-47B313209F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A48D3C-2607-4E84-8DF8-1B5CECB9344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77D1974A-9B64-46C1-B04D-23B8F52A86D2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4DA51FD-5FA0-4906-8061-449266469A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="209">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,565 +74,592 @@
     <t>96,9%</t>
   </si>
   <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,12%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona desconocida</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona desconocida</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
     <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1047,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69470E64-AD69-4AB8-8DA2-6C2925DF9611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CEDB1D-B0A2-41F4-85C9-915889BB2DC3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,10 +1608,10 @@
         <v>6077</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>72</v>
@@ -1596,13 +1623,13 @@
         <v>1945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1611,13 +1638,13 @@
         <v>8022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1659,13 @@
         <v>3713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1653,7 +1680,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1668,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1698,13 +1725,13 @@
         <v>4446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1716,10 +1743,10 @@
         <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,7 +1802,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1787,13 +1814,13 @@
         <v>539296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>832</v>
@@ -1802,13 +1829,13 @@
         <v>573519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>1361</v>
@@ -1817,13 +1844,13 @@
         <v>1112814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1865,13 @@
         <v>11248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1853,13 +1880,13 @@
         <v>4276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -1868,13 +1895,13 @@
         <v>15524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1916,13 @@
         <v>1339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1904,13 +1931,13 @@
         <v>2468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1919,13 +1946,13 @@
         <v>3807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1967,13 @@
         <v>1621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1970,13 +1997,13 @@
         <v>1621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +2018,13 @@
         <v>3748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2006,13 +2033,13 @@
         <v>3212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2021,13 +2048,13 @@
         <v>6960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2110,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2095,13 +2122,13 @@
         <v>707428</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>1115</v>
@@ -2110,13 +2137,13 @@
         <v>732121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1762</v>
@@ -2125,13 +2152,13 @@
         <v>1439549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2173,13 @@
         <v>10862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2164,10 +2191,10 @@
         <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -2176,13 +2203,13 @@
         <v>13817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,10 +2227,10 @@
         <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2212,13 +2239,13 @@
         <v>3175</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2227,13 +2254,13 @@
         <v>6616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2275,13 @@
         <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2263,13 +2290,13 @@
         <v>2294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2278,13 +2305,13 @@
         <v>2453</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2326,13 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2314,13 +2341,13 @@
         <v>3153</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2332,10 +2359,10 @@
         <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2418,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2430,13 @@
         <v>592408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>992</v>
@@ -2418,13 +2445,13 @@
         <v>590311</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>1647</v>
@@ -2433,13 +2460,13 @@
         <v>1182719</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2481,13 @@
         <v>2942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2469,13 +2496,13 @@
         <v>2002</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2484,13 +2511,13 @@
         <v>4945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,10 +2535,10 @@
         <v>43</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2520,13 +2547,13 @@
         <v>2631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2538,10 +2565,10 @@
         <v>66</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2583,13 @@
         <v>954</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2571,13 +2598,13 @@
         <v>677</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2586,13 +2613,13 @@
         <v>1630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2640,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2622,13 +2649,13 @@
         <v>744</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2637,13 +2664,13 @@
         <v>744</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2726,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2708,16 +2735,16 @@
         <v>1025</v>
       </c>
       <c r="D34" s="7">
-        <v>695885</v>
+        <v>695886</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>1696</v>
@@ -2726,13 +2753,13 @@
         <v>1019673</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>2721</v>
@@ -2741,13 +2768,13 @@
         <v>1715558</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2789,13 @@
         <v>732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -2777,13 +2804,13 @@
         <v>2609</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -2792,13 +2819,13 @@
         <v>3341</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2840,13 @@
         <v>584</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -2828,13 +2855,13 @@
         <v>1411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -2843,13 +2870,13 @@
         <v>1995</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,7 +2897,7 @@
         <v>41</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2885,7 +2912,7 @@
         <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2900,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2942,13 @@
         <v>554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2936,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2945,13 +2972,13 @@
         <v>554</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,7 +2990,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>52</v>
@@ -3019,13 +3046,13 @@
         <v>3312347</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="H40" s="7">
         <v>5285</v>
@@ -3034,28 +3061,28 @@
         <v>3745019</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M40" s="7">
         <v>8597</v>
       </c>
       <c r="N40" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3097,13 @@
         <v>40329</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H41" s="7">
         <v>23</v>
@@ -3085,13 +3112,13 @@
         <v>18823</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="M41" s="7">
         <v>56</v>
@@ -3100,13 +3127,13 @@
         <v>59153</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3148,13 @@
         <v>18696</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
@@ -3136,13 +3163,13 @@
         <v>16574</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="M42" s="7">
         <v>37</v>
@@ -3151,13 +3178,13 @@
         <v>35270</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3199,13 @@
         <v>6447</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -3187,13 +3214,13 @@
         <v>4659</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3202,13 +3229,13 @@
         <v>11106</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3250,13 @@
         <v>4461</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3238,13 +3265,13 @@
         <v>14520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="M44" s="7">
         <v>22</v>
@@ -3253,13 +3280,13 @@
         <v>18980</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3328,7 @@
         <v>8723</v>
       </c>
       <c r="N45" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>52</v>
@@ -3315,7 +3342,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A48D3C-2607-4E84-8DF8-1B5CECB9344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E58DF22B-093E-4964-900D-D2ECC294B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4DA51FD-5FA0-4906-8061-449266469A3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A3DE75-E269-4B88-A5CE-3B3F502C07EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CEDB1D-B0A2-41F4-85C9-915889BB2DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F723353-D0B5-4EC2-B560-0D773B60FA4B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E58DF22B-093E-4964-900D-D2ECC294B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2223495-3A4C-4CDE-AB55-1FEB313586F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7A3DE75-E269-4B88-A5CE-3B3F502C07EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2DF74A0-EDCA-4300-BC1D-D11A7D3C5159}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,9%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -107,559 +107,532 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1074,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F723353-D0B5-4EC2-B560-0D773B60FA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4CA9EB-D715-4BD3-BDAB-0AAE10AABC6A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,10 +1581,10 @@
         <v>6077</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>72</v>
@@ -1623,13 +1596,13 @@
         <v>1945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1638,13 +1611,13 @@
         <v>8022</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1632,13 @@
         <v>3713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1680,7 +1653,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1695,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1725,13 +1698,13 @@
         <v>4446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1743,10 +1716,10 @@
         <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,7 +1775,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1814,13 +1787,13 @@
         <v>539296</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>832</v>
@@ -1829,13 +1802,13 @@
         <v>573519</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>1361</v>
@@ -1844,13 +1817,13 @@
         <v>1112814</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1838,13 @@
         <v>11248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1880,13 +1853,13 @@
         <v>4276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -1895,13 +1868,13 @@
         <v>15524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1889,13 @@
         <v>1339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1931,13 +1904,13 @@
         <v>2468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1946,13 +1919,13 @@
         <v>3807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1940,13 @@
         <v>1621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1997,13 +1970,13 @@
         <v>1621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +1991,13 @@
         <v>3748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2033,13 +2006,13 @@
         <v>3212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2048,13 +2021,13 @@
         <v>6960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,7 +2083,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2122,13 +2095,13 @@
         <v>707428</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>1115</v>
@@ -2137,13 +2110,13 @@
         <v>732121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>1762</v>
@@ -2152,13 +2125,13 @@
         <v>1439549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2146,13 @@
         <v>10862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2191,10 +2164,10 @@
         <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -2203,13 +2176,13 @@
         <v>13817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,10 +2200,10 @@
         <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2239,13 +2212,13 @@
         <v>3175</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2254,13 +2227,13 @@
         <v>6616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2248,13 @@
         <v>159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2290,13 +2263,13 @@
         <v>2294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2305,13 +2278,13 @@
         <v>2453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2299,13 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2341,13 +2314,13 @@
         <v>3153</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2359,10 +2332,10 @@
         <v>45</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2391,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2430,13 +2403,13 @@
         <v>592408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>992</v>
@@ -2445,13 +2418,13 @@
         <v>590311</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>1647</v>
@@ -2460,13 +2433,13 @@
         <v>1182719</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2454,13 @@
         <v>2942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2496,13 +2469,13 @@
         <v>2002</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2511,13 +2484,13 @@
         <v>4945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2508,10 @@
         <v>43</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2547,13 +2520,13 @@
         <v>2631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2565,10 +2538,10 @@
         <v>66</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2556,13 @@
         <v>954</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2598,13 +2571,13 @@
         <v>677</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2613,13 +2586,13 @@
         <v>1630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2649,13 +2622,13 @@
         <v>744</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2664,13 +2637,13 @@
         <v>744</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,7 +2699,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2735,16 +2708,16 @@
         <v>1025</v>
       </c>
       <c r="D34" s="7">
-        <v>695886</v>
+        <v>695885</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H34" s="7">
         <v>1696</v>
@@ -2753,13 +2726,13 @@
         <v>1019673</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>2721</v>
@@ -2768,13 +2741,13 @@
         <v>1715558</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2762,13 @@
         <v>732</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -2804,13 +2777,13 @@
         <v>2609</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -2819,13 +2792,13 @@
         <v>3341</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2813,13 @@
         <v>584</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -2855,13 +2828,13 @@
         <v>1411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -2870,13 +2843,13 @@
         <v>1995</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2870,7 @@
         <v>41</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2912,7 +2885,7 @@
         <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2927,7 +2900,7 @@
         <v>41</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2915,13 @@
         <v>554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2963,7 +2936,7 @@
         <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2972,13 +2945,13 @@
         <v>554</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2963,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>52</v>
@@ -3046,13 +3019,13 @@
         <v>3312347</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="H40" s="7">
         <v>5285</v>
@@ -3061,28 +3034,28 @@
         <v>3745019</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M40" s="7">
         <v>8597</v>
       </c>
       <c r="N40" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3070,13 @@
         <v>40329</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H41" s="7">
         <v>23</v>
@@ -3112,13 +3085,13 @@
         <v>18823</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="M41" s="7">
         <v>56</v>
@@ -3127,13 +3100,13 @@
         <v>59153</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3121,13 @@
         <v>18696</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
@@ -3163,13 +3136,13 @@
         <v>16574</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="M42" s="7">
         <v>37</v>
@@ -3178,13 +3151,13 @@
         <v>35270</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3172,13 @@
         <v>6447</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -3214,13 +3187,13 @@
         <v>4659</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="M43" s="7">
         <v>11</v>
@@ -3229,13 +3202,13 @@
         <v>11106</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3223,13 @@
         <v>4461</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H44" s="7">
         <v>17</v>
@@ -3265,13 +3238,13 @@
         <v>14520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="M44" s="7">
         <v>22</v>
@@ -3280,13 +3253,13 @@
         <v>18980</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3301,7 @@
         <v>8723</v>
       </c>
       <c r="N45" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>52</v>
@@ -3342,7 +3315,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2223495-3A4C-4CDE-AB55-1FEB313586F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E192059-1537-4FB7-A777-655E71671864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2DF74A0-EDCA-4300-BC1D-D11A7D3C5159}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{721E2FC3-B46B-4B69-9F6D-1AD68193FA02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="208">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -65,574 +65,598 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1047,8 +1071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4CA9EB-D715-4BD3-BDAB-0AAE10AABC6A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E5F10-1094-45D4-A7C0-30C51F3AADB4}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1168,7 +1192,7 @@
         <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>365968</v>
+        <v>388130</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1183,7 +1207,7 @@
         <v>199</v>
       </c>
       <c r="I4" s="7">
-        <v>340657</v>
+        <v>301213</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1198,7 +1222,7 @@
         <v>365</v>
       </c>
       <c r="N4" s="7">
-        <v>706625</v>
+        <v>689343</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1207,115 +1231,115 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>7303</v>
+        <v>7560</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>4702</v>
+        <v>3927</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>12005</v>
+        <v>11487</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>4408</v>
+        <v>4297</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>4944</v>
+        <v>3834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>9352</v>
+        <v>8131</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1324,49 +1348,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1689</v>
+        <v>1594</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1689</v>
+        <v>1594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1375,43 +1399,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2965</v>
+        <v>2632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>2965</v>
+        <v>2632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,51 +1447,51 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1476,166 +1500,166 @@
         <v>290</v>
       </c>
       <c r="D10" s="7">
-        <v>411363</v>
+        <v>408070</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>451</v>
       </c>
       <c r="I10" s="7">
-        <v>488738</v>
+        <v>502165</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>741</v>
       </c>
       <c r="N10" s="7">
-        <v>900102</v>
+        <v>910236</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7243</v>
+        <v>6006</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2278</v>
+        <v>2113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>9521</v>
+        <v>8119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>6077</v>
+        <v>5646</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1945</v>
+        <v>1733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>8022</v>
+        <v>7379</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3713</v>
+        <v>3825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>77</v>
@@ -1647,34 +1671,34 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>3713</v>
+        <v>3825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1683,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1698,13 +1722,13 @@
         <v>4446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1713,13 +1737,13 @@
         <v>4446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,51 +1755,51 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>459</v>
       </c>
       <c r="I15" s="7">
-        <v>497407</v>
+        <v>510457</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>761</v>
       </c>
       <c r="N15" s="7">
-        <v>925803</v>
+        <v>934005</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1784,169 +1808,169 @@
         <v>529</v>
       </c>
       <c r="D16" s="7">
-        <v>539296</v>
+        <v>519474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>832</v>
       </c>
       <c r="I16" s="7">
-        <v>573519</v>
+        <v>533362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1361</v>
       </c>
       <c r="N16" s="7">
-        <v>1112814</v>
+        <v>1052836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>11248</v>
+        <v>10288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4276</v>
+        <v>3939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>15524</v>
+        <v>14226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1339</v>
+        <v>1232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2468</v>
+        <v>2183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>3807</v>
+        <v>3415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1955,79 +1979,79 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>3748</v>
+        <v>3685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3212</v>
+        <v>2985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>6960</v>
+        <v>6670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,51 +2063,51 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>846</v>
       </c>
       <c r="I21" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2092,64 +2116,64 @@
         <v>647</v>
       </c>
       <c r="D22" s="7">
-        <v>707428</v>
+        <v>872615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>1115</v>
       </c>
       <c r="I22" s="7">
-        <v>732121</v>
+        <v>698993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1762</v>
       </c>
       <c r="N22" s="7">
-        <v>1439549</v>
+        <v>1571608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>10862</v>
+        <v>9986</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>129</v>
@@ -2158,13 +2182,13 @@
         <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>2955</v>
+        <v>2769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>131</v>
@@ -2173,13 +2197,13 @@
         <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>13817</v>
+        <v>12755</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>133</v>
@@ -2188,85 +2212,85 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3441</v>
+        <v>3172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>3175</v>
+        <v>2961</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>6616</v>
+        <v>6133</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2294</v>
+        <v>2075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>140</v>
@@ -2275,67 +2299,67 @@
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>2453</v>
+        <v>2237</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>3153</v>
+        <v>2863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>3312</v>
+        <v>3032</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,46 +2371,46 @@
         <v>663</v>
       </c>
       <c r="D27" s="7">
-        <v>722049</v>
+        <v>886104</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
       </c>
       <c r="I27" s="7">
-        <v>743698</v>
+        <v>709661</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>1797</v>
       </c>
       <c r="N27" s="7">
-        <v>1465747</v>
+        <v>1595765</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,7 +2424,7 @@
         <v>655</v>
       </c>
       <c r="D28" s="7">
-        <v>592408</v>
+        <v>554264</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>146</v>
@@ -2415,7 +2439,7 @@
         <v>992</v>
       </c>
       <c r="I28" s="7">
-        <v>590311</v>
+        <v>541802</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>149</v>
@@ -2430,7 +2454,7 @@
         <v>1647</v>
       </c>
       <c r="N28" s="7">
-        <v>1182719</v>
+        <v>1096066</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>152</v>
@@ -2445,34 +2469,34 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2942</v>
+        <v>2727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>2002</v>
+        <v>1805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>158</v>
@@ -2481,124 +2505,124 @@
         <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>4945</v>
+        <v>4532</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>2847</v>
+        <v>2559</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
       </c>
       <c r="I30" s="7">
-        <v>2631</v>
+        <v>2388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>5478</v>
+        <v>4948</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>954</v>
+        <v>752</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>677</v>
+        <v>593</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>1630</v>
+        <v>1345</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2607,43 +2631,43 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,207 +2679,207 @@
         <v>662</v>
       </c>
       <c r="D33" s="7">
-        <v>599151</v>
+        <v>560303</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>1001</v>
       </c>
       <c r="I33" s="7">
-        <v>596365</v>
+        <v>547274</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>1663</v>
       </c>
       <c r="N33" s="7">
-        <v>1195516</v>
+        <v>1107577</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="D34" s="7">
-        <v>695885</v>
+        <v>366477</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="7">
+        <v>818</v>
+      </c>
+      <c r="I34" s="7">
+        <v>603792</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1385</v>
+      </c>
+      <c r="N34" s="7">
+        <v>970268</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="7">
-        <v>1696</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1019673</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2721</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1715558</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>732</v>
+        <v>624</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1754</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="7">
         <v>4</v>
       </c>
-      <c r="I35" s="7">
-        <v>2609</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M35" s="7">
-        <v>5</v>
-      </c>
       <c r="N35" s="7">
-        <v>3341</v>
+        <v>2378</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H36" s="7">
+        <v>2</v>
+      </c>
+      <c r="I36" s="7">
+        <v>748</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="7">
         <v>3</v>
       </c>
-      <c r="I36" s="7">
-        <v>1411</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M36" s="7">
-        <v>4</v>
-      </c>
       <c r="N36" s="7">
-        <v>1995</v>
+        <v>1297</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -2864,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2879,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2894,34 +2918,34 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2930,28 +2954,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,306 +2984,306 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
-        <v>1703</v>
+        <v>823</v>
       </c>
       <c r="I39" s="7">
-        <v>1023694</v>
+        <v>606294</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
-        <v>2731</v>
+        <v>1393</v>
       </c>
       <c r="N39" s="7">
-        <v>1721448</v>
+        <v>974459</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>3312</v>
+        <v>458</v>
       </c>
       <c r="D40" s="7">
-        <v>3312347</v>
+        <v>282759</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="7">
+        <v>878</v>
+      </c>
+      <c r="I40" s="7">
+        <v>424145</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="7">
-        <v>5285</v>
-      </c>
-      <c r="I40" s="7">
-        <v>3745019</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="L40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N40" s="7">
+        <v>706904</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M40" s="7">
-        <v>8597</v>
-      </c>
-      <c r="N40" s="7">
-        <v>7057366</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>40329</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="H41" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>18823</v>
+        <v>556</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M41" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>59153</v>
+        <v>556</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>18696</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="H42" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>16574</v>
+        <v>564</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="M42" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>35270</v>
+        <v>564</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="7">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7">
-        <v>6447</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H43" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>4659</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M43" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>4461</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H44" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>14520</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="M44" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>18980</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,63 +3292,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>458</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="7">
+        <v>880</v>
+      </c>
+      <c r="I45" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N45" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3312</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3391790</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="7">
+        <v>5285</v>
+      </c>
+      <c r="I46" s="7">
+        <v>3605471</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="7">
+        <v>8597</v>
+      </c>
+      <c r="N46" s="7">
+        <v>6997261</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7">
+        <v>37190</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="7">
+        <v>23</v>
+      </c>
+      <c r="I47" s="7">
+        <v>16862</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="7">
+        <v>56</v>
+      </c>
+      <c r="N47" s="7">
+        <v>54053</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7">
+        <v>17455</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="7">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7">
+        <v>14411</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M48" s="7">
+        <v>37</v>
+      </c>
+      <c r="N48" s="7">
+        <v>31866</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <v>6399</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>4261</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M49" s="7">
+        <v>11</v>
+      </c>
+      <c r="N49" s="7">
+        <v>10660</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4369</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="7">
+        <v>17</v>
+      </c>
+      <c r="I50" s="7">
+        <v>13614</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" s="7">
+        <v>22</v>
+      </c>
+      <c r="N50" s="7">
+        <v>17983</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3373</v>
       </c>
-      <c r="D45" s="7">
-        <v>3382280</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3457204</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="7">
         <v>5350</v>
       </c>
-      <c r="I45" s="7">
-        <v>3799596</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3654619</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" s="7">
         <v>8723</v>
       </c>
-      <c r="N45" s="7">
-        <v>7181876</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>199</v>
+      <c r="N51" s="7">
+        <v>7111823</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
